--- a/output/result_df2.xlsx
+++ b/output/result_df2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buzzebees-my.sharepoint.com/personal/waris_r_buzzebees_com/Documents/Projects/OCR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buzzebees-my.sharepoint.com/personal/waris_r_buzzebees_com/Documents/Projects/OCR/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_3DAD8243DA5DF20F62355476585DCE3A87466637" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0E0D72B-C570-487F-BC08-477882EE8EEE}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_3DAD8243DA5DF20F62355476585DCE3A87466637" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55C5E48C-43BA-486D-9642-A3E2F70D23C6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -958,11 +958,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1267,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J3:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1276,9 +1277,11 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="75.5546875" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -1307,16 +1310,16 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1344,17 +1347,17 @@
       <c r="H2" t="s">
         <v>235</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>0.47043927659425328</v>
+      </c>
+      <c r="J2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L2" t="s">
         <v>236</v>
-      </c>
-      <c r="J2">
-        <v>0.47043927659425328</v>
-      </c>
-      <c r="K2" t="s">
-        <v>232</v>
-      </c>
-      <c r="L2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1382,17 +1385,17 @@
       <c r="H3" t="s">
         <v>245</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>0.32917343962246037</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L3" t="s">
         <v>231</v>
-      </c>
-      <c r="J3">
-        <v>0.32917343962246037</v>
-      </c>
-      <c r="K3" t="s">
-        <v>242</v>
-      </c>
-      <c r="L3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1420,17 +1423,17 @@
       <c r="H4" t="s">
         <v>230</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4">
+        <v>0.34395080848701859</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L4" t="s">
         <v>231</v>
-      </c>
-      <c r="J4">
-        <v>0.34395080848701859</v>
-      </c>
-      <c r="K4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L4" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1458,17 +1461,17 @@
       <c r="H5" t="s">
         <v>240</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5">
+        <v>0.35866234067649289</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L5" t="s">
         <v>241</v>
-      </c>
-      <c r="J5">
-        <v>0.35866234067649289</v>
-      </c>
-      <c r="K5" t="s">
-        <v>237</v>
-      </c>
-      <c r="L5" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1496,17 +1499,17 @@
       <c r="H6" t="s">
         <v>247</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6">
+        <v>0.58531040684002911</v>
+      </c>
+      <c r="J6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K6" t="s">
+        <v>289</v>
+      </c>
+      <c r="L6" t="s">
         <v>241</v>
-      </c>
-      <c r="J6">
-        <v>0.58531040684002911</v>
-      </c>
-      <c r="K6" t="s">
-        <v>246</v>
-      </c>
-      <c r="L6" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1534,17 +1537,17 @@
       <c r="H7" t="s">
         <v>54</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7">
+        <v>0.74805387206922913</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L7" t="s">
         <v>55</v>
-      </c>
-      <c r="J7">
-        <v>0.74805387206922913</v>
-      </c>
-      <c r="K7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1572,17 +1575,17 @@
       <c r="H8" t="s">
         <v>49</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8">
+        <v>0.98967148717597886</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>257</v>
+      </c>
+      <c r="L8" t="s">
         <v>50</v>
-      </c>
-      <c r="J8">
-        <v>0.98967148717597886</v>
-      </c>
-      <c r="K8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1610,17 +1613,17 @@
       <c r="H9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9">
+        <v>0.83701206028555841</v>
+      </c>
+      <c r="J9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" t="s">
+        <v>261</v>
+      </c>
+      <c r="L9" t="s">
         <v>74</v>
-      </c>
-      <c r="J9">
-        <v>0.83701206028555841</v>
-      </c>
-      <c r="K9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1648,17 +1651,17 @@
       <c r="H10" t="s">
         <v>59</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10">
+        <v>0.55127799232504793</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" t="s">
+        <v>259</v>
+      </c>
+      <c r="L10" t="s">
         <v>60</v>
-      </c>
-      <c r="J10">
-        <v>0.55127799232504793</v>
-      </c>
-      <c r="K10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1686,17 +1689,17 @@
       <c r="H11" t="s">
         <v>64</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11">
+        <v>0.90501216159991427</v>
+      </c>
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" t="s">
+        <v>259</v>
+      </c>
+      <c r="L11" t="s">
         <v>60</v>
-      </c>
-      <c r="J11">
-        <v>0.90501216159991427</v>
-      </c>
-      <c r="K11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1724,17 +1727,17 @@
       <c r="H12" t="s">
         <v>83</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12">
+        <v>0.62289623011690909</v>
+      </c>
+      <c r="J12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" t="s">
+        <v>263</v>
+      </c>
+      <c r="L12" t="s">
         <v>84</v>
-      </c>
-      <c r="J12">
-        <v>0.62289623011690909</v>
-      </c>
-      <c r="K12" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1762,17 +1765,17 @@
       <c r="H13" t="s">
         <v>68</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13">
+        <v>0.87483299743998844</v>
+      </c>
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>260</v>
+      </c>
+      <c r="L13" t="s">
         <v>69</v>
-      </c>
-      <c r="J13">
-        <v>0.87483299743998844</v>
-      </c>
-      <c r="K13" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1800,17 +1803,17 @@
       <c r="H14" t="s">
         <v>78</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14">
+        <v>0.9101306616400231</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>262</v>
+      </c>
+      <c r="L14" t="s">
         <v>79</v>
-      </c>
-      <c r="J14">
-        <v>0.9101306616400231</v>
-      </c>
-      <c r="K14" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1838,17 +1841,17 @@
       <c r="H15" t="s">
         <v>225</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15">
+        <v>0.72180621393693412</v>
+      </c>
+      <c r="J15" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" t="s">
+        <v>286</v>
+      </c>
+      <c r="L15" t="s">
         <v>226</v>
-      </c>
-      <c r="J15">
-        <v>0.72180621393693412</v>
-      </c>
-      <c r="K15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L15" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1876,17 +1879,17 @@
       <c r="H16" t="s">
         <v>39</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16">
+        <v>0.50701850567898354</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" t="s">
+        <v>255</v>
+      </c>
+      <c r="L16" t="s">
         <v>40</v>
-      </c>
-      <c r="J16">
-        <v>0.50701850567898354</v>
-      </c>
-      <c r="K16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1914,17 +1917,17 @@
       <c r="H17" t="s">
         <v>44</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17">
+        <v>0.36581136809324122</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" t="s">
+        <v>256</v>
+      </c>
+      <c r="L17" t="s">
         <v>45</v>
-      </c>
-      <c r="J17">
-        <v>0.36581136809324122</v>
-      </c>
-      <c r="K17" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1952,17 +1955,17 @@
       <c r="H18" t="s">
         <v>136</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18">
+        <v>0.68626087345090925</v>
+      </c>
+      <c r="J18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" t="s">
+        <v>272</v>
+      </c>
+      <c r="L18" t="s">
         <v>137</v>
-      </c>
-      <c r="J18">
-        <v>0.68626087345090925</v>
-      </c>
-      <c r="K18" t="s">
-        <v>133</v>
-      </c>
-      <c r="L18" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1990,17 +1993,17 @@
       <c r="H19" t="s">
         <v>131</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19">
+        <v>0.47750611178928609</v>
+      </c>
+      <c r="J19" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" t="s">
+        <v>271</v>
+      </c>
+      <c r="L19" t="s">
         <v>132</v>
-      </c>
-      <c r="J19">
-        <v>0.47750611178928609</v>
-      </c>
-      <c r="K19" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -2028,17 +2031,17 @@
       <c r="H20" t="s">
         <v>141</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20">
+        <v>0.69699836260700221</v>
+      </c>
+      <c r="J20" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" t="s">
+        <v>273</v>
+      </c>
+      <c r="L20" t="s">
         <v>142</v>
-      </c>
-      <c r="J20">
-        <v>0.69699836260700221</v>
-      </c>
-      <c r="K20" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -2066,17 +2069,17 @@
       <c r="H21" t="s">
         <v>184</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21">
+        <v>0.57773282234496293</v>
+      </c>
+      <c r="J21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s">
+        <v>280</v>
+      </c>
+      <c r="L21" t="s">
         <v>185</v>
-      </c>
-      <c r="J21">
-        <v>0.57773282234496293</v>
-      </c>
-      <c r="K21" t="s">
-        <v>181</v>
-      </c>
-      <c r="L21" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -2104,17 +2107,17 @@
       <c r="H22" t="s">
         <v>193</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22">
+        <v>0.54174441100342308</v>
+      </c>
+      <c r="J22" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" t="s">
+        <v>280</v>
+      </c>
+      <c r="L22" t="s">
         <v>185</v>
-      </c>
-      <c r="J22">
-        <v>0.54174441100342308</v>
-      </c>
-      <c r="K22" t="s">
-        <v>190</v>
-      </c>
-      <c r="L22" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -2142,17 +2145,17 @@
       <c r="H23" t="s">
         <v>189</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23">
+        <v>0.46422251614250037</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>273</v>
+      </c>
+      <c r="L23" t="s">
         <v>142</v>
-      </c>
-      <c r="J23">
-        <v>0.46422251614250037</v>
-      </c>
-      <c r="K23" t="s">
-        <v>186</v>
-      </c>
-      <c r="L23" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2180,17 +2183,17 @@
       <c r="H24" t="s">
         <v>211</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24">
+        <v>0.4278276641854919</v>
+      </c>
+      <c r="J24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" t="s">
+        <v>283</v>
+      </c>
+      <c r="L24" t="s">
         <v>212</v>
-      </c>
-      <c r="J24">
-        <v>0.4278276641854919</v>
-      </c>
-      <c r="K24" t="s">
-        <v>208</v>
-      </c>
-      <c r="L24" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -2218,17 +2221,17 @@
       <c r="H25" t="s">
         <v>202</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25">
+        <v>0.42328154721928402</v>
+      </c>
+      <c r="J25" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" t="s">
+        <v>282</v>
+      </c>
+      <c r="L25" t="s">
         <v>203</v>
-      </c>
-      <c r="J25">
-        <v>0.42328154721928402</v>
-      </c>
-      <c r="K25" t="s">
-        <v>199</v>
-      </c>
-      <c r="L25" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2256,17 +2259,17 @@
       <c r="H26" t="s">
         <v>146</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26">
+        <v>0.49666109576526613</v>
+      </c>
+      <c r="J26" t="s">
+        <v>143</v>
+      </c>
+      <c r="K26" t="s">
+        <v>274</v>
+      </c>
+      <c r="L26" t="s">
         <v>147</v>
-      </c>
-      <c r="J26">
-        <v>0.49666109576526613</v>
-      </c>
-      <c r="K26" t="s">
-        <v>143</v>
-      </c>
-      <c r="L26" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -2294,17 +2297,17 @@
       <c r="H27" t="s">
         <v>220</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27">
+        <v>0.53190807164242115</v>
+      </c>
+      <c r="J27" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s">
+        <v>285</v>
+      </c>
+      <c r="L27" t="s">
         <v>221</v>
-      </c>
-      <c r="J27">
-        <v>0.53190807164242115</v>
-      </c>
-      <c r="K27" t="s">
-        <v>217</v>
-      </c>
-      <c r="L27" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2332,17 +2335,17 @@
       <c r="H28" t="s">
         <v>197</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28">
+        <v>0.59084711597188566</v>
+      </c>
+      <c r="J28" t="s">
+        <v>194</v>
+      </c>
+      <c r="K28" t="s">
+        <v>281</v>
+      </c>
+      <c r="L28" t="s">
         <v>198</v>
-      </c>
-      <c r="J28">
-        <v>0.59084711597188566</v>
-      </c>
-      <c r="K28" t="s">
-        <v>194</v>
-      </c>
-      <c r="L28" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -2370,17 +2373,17 @@
       <c r="H29" t="s">
         <v>117</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29">
+        <v>0.71586720986681518</v>
+      </c>
+      <c r="J29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" t="s">
+        <v>269</v>
+      </c>
+      <c r="L29" t="s">
         <v>118</v>
-      </c>
-      <c r="J29">
-        <v>0.71586720986681518</v>
-      </c>
-      <c r="K29" t="s">
-        <v>114</v>
-      </c>
-      <c r="L29" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -2408,17 +2411,17 @@
       <c r="H30" t="s">
         <v>112</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30">
+        <v>0.68507309340357747</v>
+      </c>
+      <c r="J30" t="s">
+        <v>109</v>
+      </c>
+      <c r="K30" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" t="s">
         <v>113</v>
-      </c>
-      <c r="J30">
-        <v>0.68507309340357747</v>
-      </c>
-      <c r="K30" t="s">
-        <v>109</v>
-      </c>
-      <c r="L30" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -2446,17 +2449,17 @@
       <c r="H31" t="s">
         <v>127</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31">
+        <v>0.64650361022799641</v>
+      </c>
+      <c r="J31" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31" t="s">
+        <v>268</v>
+      </c>
+      <c r="L31" t="s">
         <v>113</v>
-      </c>
-      <c r="J31">
-        <v>0.64650361022799641</v>
-      </c>
-      <c r="K31" t="s">
-        <v>124</v>
-      </c>
-      <c r="L31" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -2484,17 +2487,17 @@
       <c r="H32" t="s">
         <v>122</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32">
+        <v>0.51047781508545353</v>
+      </c>
+      <c r="J32" t="s">
+        <v>119</v>
+      </c>
+      <c r="K32" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" t="s">
         <v>123</v>
-      </c>
-      <c r="J32">
-        <v>0.51047781508545353</v>
-      </c>
-      <c r="K32" t="s">
-        <v>119</v>
-      </c>
-      <c r="L32" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -2522,17 +2525,17 @@
       <c r="H33" t="s">
         <v>180</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33">
+        <v>0.48334929493809647</v>
+      </c>
+      <c r="J33" t="s">
+        <v>177</v>
+      </c>
+      <c r="K33" t="s">
+        <v>268</v>
+      </c>
+      <c r="L33" t="s">
         <v>113</v>
-      </c>
-      <c r="J33">
-        <v>0.48334929493809647</v>
-      </c>
-      <c r="K33" t="s">
-        <v>177</v>
-      </c>
-      <c r="L33" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -2560,17 +2563,17 @@
       <c r="H34" t="s">
         <v>151</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34">
+        <v>0.52768471401003192</v>
+      </c>
+      <c r="J34" t="s">
+        <v>148</v>
+      </c>
+      <c r="K34" t="s">
+        <v>275</v>
+      </c>
+      <c r="L34" t="s">
         <v>152</v>
-      </c>
-      <c r="J34">
-        <v>0.52768471401003192</v>
-      </c>
-      <c r="K34" t="s">
-        <v>148</v>
-      </c>
-      <c r="L34" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -2598,17 +2601,17 @@
       <c r="H35" t="s">
         <v>165</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35">
+        <v>0.36584564460795232</v>
+      </c>
+      <c r="J35" t="s">
+        <v>162</v>
+      </c>
+      <c r="K35" t="s">
+        <v>277</v>
+      </c>
+      <c r="L35" t="s">
         <v>166</v>
-      </c>
-      <c r="J35">
-        <v>0.36584564460795232</v>
-      </c>
-      <c r="K35" t="s">
-        <v>162</v>
-      </c>
-      <c r="L35" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2636,17 +2639,17 @@
       <c r="H36" t="s">
         <v>156</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36">
+        <v>0.5416218931023391</v>
+      </c>
+      <c r="J36" t="s">
+        <v>153</v>
+      </c>
+      <c r="K36" t="s">
+        <v>276</v>
+      </c>
+      <c r="L36" t="s">
         <v>157</v>
-      </c>
-      <c r="J36">
-        <v>0.5416218931023391</v>
-      </c>
-      <c r="K36" t="s">
-        <v>153</v>
-      </c>
-      <c r="L36" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2674,17 +2677,17 @@
       <c r="H37" t="s">
         <v>161</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37">
+        <v>0.56423043015493701</v>
+      </c>
+      <c r="J37" t="s">
+        <v>158</v>
+      </c>
+      <c r="K37" t="s">
+        <v>276</v>
+      </c>
+      <c r="L37" t="s">
         <v>157</v>
-      </c>
-      <c r="J37">
-        <v>0.56423043015493701</v>
-      </c>
-      <c r="K37" t="s">
-        <v>158</v>
-      </c>
-      <c r="L37" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2712,17 +2715,17 @@
       <c r="H38" t="s">
         <v>175</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38">
+        <v>0.54524367262777262</v>
+      </c>
+      <c r="J38" t="s">
+        <v>172</v>
+      </c>
+      <c r="K38" t="s">
+        <v>279</v>
+      </c>
+      <c r="L38" t="s">
         <v>176</v>
-      </c>
-      <c r="J38">
-        <v>0.54524367262777262</v>
-      </c>
-      <c r="K38" t="s">
-        <v>172</v>
-      </c>
-      <c r="L38" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2750,17 +2753,17 @@
       <c r="H39" t="s">
         <v>170</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39">
+        <v>0.30296949819203622</v>
+      </c>
+      <c r="J39" t="s">
+        <v>167</v>
+      </c>
+      <c r="K39" t="s">
+        <v>278</v>
+      </c>
+      <c r="L39" t="s">
         <v>171</v>
-      </c>
-      <c r="J39">
-        <v>0.30296949819203622</v>
-      </c>
-      <c r="K39" t="s">
-        <v>167</v>
-      </c>
-      <c r="L39" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2788,17 +2791,17 @@
       <c r="H40" t="s">
         <v>214</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40">
+        <v>0.41267135697127638</v>
+      </c>
+      <c r="J40" t="s">
+        <v>213</v>
+      </c>
+      <c r="K40" t="s">
+        <v>284</v>
+      </c>
+      <c r="L40" t="s">
         <v>216</v>
-      </c>
-      <c r="J40">
-        <v>0.41267135697127638</v>
-      </c>
-      <c r="K40" t="s">
-        <v>213</v>
-      </c>
-      <c r="L40" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2826,17 +2829,17 @@
       <c r="H41" t="s">
         <v>207</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41">
+        <v>0.51427552628125317</v>
+      </c>
+      <c r="J41" t="s">
+        <v>204</v>
+      </c>
+      <c r="K41" t="s">
+        <v>282</v>
+      </c>
+      <c r="L41" t="s">
         <v>203</v>
-      </c>
-      <c r="J41">
-        <v>0.51427552628125317</v>
-      </c>
-      <c r="K41" t="s">
-        <v>204</v>
-      </c>
-      <c r="L41" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2864,17 +2867,17 @@
       <c r="H42" t="s">
         <v>93</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42">
+        <v>0.5333189739425257</v>
+      </c>
+      <c r="J42" t="s">
+        <v>90</v>
+      </c>
+      <c r="K42" t="s">
+        <v>265</v>
+      </c>
+      <c r="L42" t="s">
         <v>94</v>
-      </c>
-      <c r="J42">
-        <v>0.5333189739425257</v>
-      </c>
-      <c r="K42" t="s">
-        <v>90</v>
-      </c>
-      <c r="L42" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2902,17 +2905,17 @@
       <c r="H43" t="s">
         <v>88</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43">
+        <v>0.46742086838225361</v>
+      </c>
+      <c r="J43" t="s">
+        <v>85</v>
+      </c>
+      <c r="K43" t="s">
+        <v>264</v>
+      </c>
+      <c r="L43" t="s">
         <v>89</v>
-      </c>
-      <c r="J43">
-        <v>0.46742086838225361</v>
-      </c>
-      <c r="K43" t="s">
-        <v>85</v>
-      </c>
-      <c r="L43" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2940,17 +2943,17 @@
       <c r="H44" t="s">
         <v>98</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44">
+        <v>0.45807946211878309</v>
+      </c>
+      <c r="J44" t="s">
+        <v>95</v>
+      </c>
+      <c r="K44" t="s">
+        <v>266</v>
+      </c>
+      <c r="L44" t="s">
         <v>99</v>
-      </c>
-      <c r="J44">
-        <v>0.45807946211878309</v>
-      </c>
-      <c r="K44" t="s">
-        <v>95</v>
-      </c>
-      <c r="L44" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -2978,17 +2981,17 @@
       <c r="H45" t="s">
         <v>107</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45">
+        <v>0.48264040877807363</v>
+      </c>
+      <c r="J45" t="s">
+        <v>104</v>
+      </c>
+      <c r="K45" t="s">
+        <v>267</v>
+      </c>
+      <c r="L45" t="s">
         <v>108</v>
-      </c>
-      <c r="J45">
-        <v>0.48264040877807363</v>
-      </c>
-      <c r="K45" t="s">
-        <v>104</v>
-      </c>
-      <c r="L45" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -3016,17 +3019,17 @@
       <c r="H46" t="s">
         <v>103</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46">
+        <v>0.37988530156278888</v>
+      </c>
+      <c r="J46" t="s">
+        <v>100</v>
+      </c>
+      <c r="K46" t="s">
+        <v>266</v>
+      </c>
+      <c r="L46" t="s">
         <v>99</v>
-      </c>
-      <c r="J46">
-        <v>0.37988530156278888</v>
-      </c>
-      <c r="K46" t="s">
-        <v>100</v>
-      </c>
-      <c r="L46" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -3054,17 +3057,17 @@
       <c r="H47" t="s">
         <v>14</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47">
+        <v>0.4904799934481211</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" t="s">
+        <v>250</v>
+      </c>
+      <c r="L47" t="s">
         <v>15</v>
-      </c>
-      <c r="J47">
-        <v>0.4904799934481211</v>
-      </c>
-      <c r="K47" t="s">
-        <v>11</v>
-      </c>
-      <c r="L47" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -3092,17 +3095,17 @@
       <c r="H48" t="s">
         <v>19</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48">
+        <v>0.43996386842115859</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" t="s">
+        <v>251</v>
+      </c>
+      <c r="L48" t="s">
         <v>20</v>
-      </c>
-      <c r="J48">
-        <v>0.43996386842115859</v>
-      </c>
-      <c r="K48" t="s">
-        <v>16</v>
-      </c>
-      <c r="L48" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -3130,17 +3133,17 @@
       <c r="H49" t="s">
         <v>34</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49">
+        <v>0.29141797764931032</v>
+      </c>
+      <c r="J49" t="s">
+        <v>31</v>
+      </c>
+      <c r="K49" t="s">
+        <v>254</v>
+      </c>
+      <c r="L49" t="s">
         <v>35</v>
-      </c>
-      <c r="J49">
-        <v>0.29141797764931032</v>
-      </c>
-      <c r="K49" t="s">
-        <v>31</v>
-      </c>
-      <c r="L49" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -3168,17 +3171,17 @@
       <c r="H50" t="s">
         <v>24</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50">
+        <v>0.32726388465738748</v>
+      </c>
+      <c r="J50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" t="s">
+        <v>252</v>
+      </c>
+      <c r="L50" t="s">
         <v>25</v>
-      </c>
-      <c r="J50">
-        <v>0.32726388465738748</v>
-      </c>
-      <c r="K50" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -3206,22 +3209,22 @@
       <c r="H51" t="s">
         <v>29</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51">
+        <v>0.27182752181974329</v>
+      </c>
+      <c r="J51" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" t="s">
+        <v>253</v>
+      </c>
+      <c r="L51" t="s">
         <v>30</v>
       </c>
-      <c r="J51">
-        <v>0.27182752181974329</v>
-      </c>
-      <c r="K51" t="s">
-        <v>26</v>
-      </c>
-      <c r="L51" t="s">
-        <v>253</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L51">
-    <sortCondition ref="K1:K51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K51">
+    <sortCondition ref="J1:J51"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
